--- a/results/case2/sensitivity_case2_cut_off.xlsx
+++ b/results/case2/sensitivity_case2_cut_off.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.08050784441722784</v>
+        <v>0.08323098744750423</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.07187424609306466</v>
+        <v>-0.07430536102488061</v>
       </c>
     </row>
     <row r="4">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.765934380342173</v>
+        <v>2.72419264871295</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3457417975427714</v>
+        <v>-0.3405240810891188</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1732751102804644</v>
+        <v>0.1791360653457613</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1217165501861435</v>
+        <v>-0.1258335596202899</v>
       </c>
     </row>
     <row r="6">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C6" t="n">
         <v>-0.3942857142857142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349402</v>
       </c>
       <c r="E6" t="n">
         <v>-0.3942857142857142</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C7" t="n">
         <v>-0.3942857142857142</v>
       </c>
       <c r="D7" t="n">
-        <v>3.296825768774805</v>
+        <v>3.263668135241155</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9336183081076936</v>
+        <v>-0.9349487160200034</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2/sensitivity_case2_cut_off.xlsx
+++ b/results/case2/sensitivity_case2_cut_off.xlsx
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1791360653457613</v>
+        <v>0.1791360653457618</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1258335596202899</v>
+        <v>-0.1344043653140984</v>
       </c>
     </row>
     <row r="6">
@@ -583,10 +583,10 @@
         <v>-0.3942857142857142</v>
       </c>
       <c r="D7" t="n">
-        <v>3.263668135241155</v>
+        <v>3.263668135241156</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9349487160200034</v>
+        <v>-0.9435195217138119</v>
       </c>
     </row>
   </sheetData>
